--- a/data/DOS_SALIDAS.xlsx
+++ b/data/DOS_SALIDAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juang\Documents\Universidad\EIA S10-2023\Sistemas Inteligentes\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0950A4B-2570-4458-BDDF-79D3683C8B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47664F63-2141-4A4D-A410-280FE30386D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58FADFC2-64F6-43DB-895B-16C65241A87B}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
